--- a/Config/boeApplyPageConfig.xlsx
+++ b/Config/boeApplyPageConfig.xlsx
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -168,6 +168,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -176,14 +214,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,14 +283,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,92 +299,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +537,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,11 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,35 +589,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +610,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1448,29 +1448,29 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
-      <formula1>"是否执行"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
+      <formula1>"路径"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"文件名"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
-      <formula1>"路径"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7">
-      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
+      <formula1>"是否执行"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
       <formula1>"类名"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F6 F7 F3:F4">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
       <formula1>"方法名"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F6 F7 F3:F4">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7">
+      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Config/boeApplyPageConfig.xlsx
+++ b/Config/boeApplyPageConfig.xlsx
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -168,91 +168,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,9 +259,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,22 +298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,90 +324,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,96 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,41 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,22 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1448,26 +1448,26 @@
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
+      <formula1>"文件名"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
       <formula1>"路径"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
-      <formula1>"文件名"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
+      <formula1>"类名"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
+      <formula1>"方法名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
       <formula1>"是否执行"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
-      <formula1>"类名"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F6 F7 F3:F4">
       <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
-      <formula1>"方法名"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7">
       <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>

--- a/Config/boeApplyPageConfig.xlsx
+++ b/Config/boeApplyPageConfig.xlsx
@@ -146,8 +146,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -175,77 +175,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,13 +265,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -275,30 +298,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,43 +324,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,139 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,78 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,78 +630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,145 +638,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1454,23 +1454,23 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F6 F7 F3:F4">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
       <formula1>"路径"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
       <formula1>"类名"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7">
+      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
       <formula1>"方法名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
       <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F6 F7 F3:F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7">
-      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Config/boeApplyPageConfig.xlsx
+++ b/Config/boeApplyPageConfig.xlsx
@@ -148,8 +148,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -169,6 +169,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -176,14 +184,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,40 +228,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,32 +258,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,9 +535,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,15 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -595,41 +630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1448,14 +1448,17 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
-      <formula1>"文件名"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F6 F7 F3:F4">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7">
+      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
+      <formula1>"方法名"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
+      <formula1>"文件名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
       <formula1>"路径"</formula1>
@@ -1463,14 +1466,11 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
       <formula1>"类名"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7">
-      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
-      <formula1>"方法名"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
       <formula1>"是否执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F3:F4 F6:F7">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
